--- a/Examples/Børne Klub 100/Børne Klub 100.xlsx
+++ b/Examples/Børne Klub 100/Børne Klub 100.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72ad7a60f2949dc8/Dokumenter/DTU/Vektor/klub-100-maker/Examples/Børne Klub 100/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Dokumenter\DTU\Vektor\klub-100-maker\Examples\Børne Klub 100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74159E1-9D3A-4209-AA41-EACA3A224F82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B74159E1-9D3A-4209-AA41-EACA3A224F82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5EAFEE2E-C7AB-4B3B-A49A-542EF3F40A9F}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Shoutout titel</t>
   </si>
   <si>
-    <t>Sang - Kunster</t>
-  </si>
-  <si>
     <t>Shoutouts</t>
   </si>
   <si>
@@ -1000,6 +997,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=bnw3Dywvs2s&amp;list=PLVZFxulTtgNO64S-jrop7Sqw2Lq2Qan59&amp;index=194</t>
+  </si>
+  <si>
+    <t>Sang - Kunstner</t>
   </si>
 </sst>
 </file>
@@ -1314,41 +1314,41 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>322</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>25</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="C5" s="1">
         <v>50</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
@@ -1400,24 +1400,24 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1436,24 +1436,24 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1">
         <v>55</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="C13" s="1">
         <v>43</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C14" s="1">
         <v>40</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="C18" s="1">
         <v>7</v>
@@ -1516,24 +1516,24 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="C36" s="1">
         <v>76</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="C38" s="1">
         <v>6</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1750,38 +1750,38 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1800,24 +1800,24 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="C47" s="1">
         <v>6</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="C48" s="1">
         <v>3</v>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="C49" s="1">
         <v>13</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="C50" s="1">
         <v>20</v>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="C51" s="1">
         <v>3</v>
@@ -1880,10 +1880,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -1891,10 +1891,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -1913,24 +1913,24 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="C58" s="1">
         <v>50</v>
@@ -1949,10 +1949,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="C59" s="1">
         <v>46</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="C61" s="1">
         <v>38</v>
@@ -1982,10 +1982,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="C63" s="1">
         <v>5</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="C64" s="1">
         <v>11</v>
@@ -2015,10 +2015,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="C67" s="1">
         <v>15</v>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -2059,10 +2059,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="C69" s="1">
         <v>6</v>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="C71" s="1">
         <v>30</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="C72" s="1">
         <v>50</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="C74" s="1">
         <v>5</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="C76" s="1">
         <v>75</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="C77" s="1">
         <v>3</v>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="C78" s="1">
         <v>10</v>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="C79" s="1">
         <v>32</v>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="C81" s="1">
         <v>6</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -2257,18 +2257,18 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="C90" s="1">
         <v>18</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="C92" s="1">
         <v>10</v>
@@ -2309,10 +2309,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="C96" s="1">
         <v>19</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="C98" s="1">
         <v>0</v>
@@ -2342,10 +2342,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="C99" s="1">
         <v>70</v>
@@ -2353,10 +2353,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="C100" s="1">
         <v>0</v>
@@ -2364,32 +2364,32 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="C101" s="1">
         <v>18</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
@@ -2397,24 +2397,24 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="C105" s="1">
         <v>80</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="C107" s="1">
         <v>15</v>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="C108" s="1">
         <v>0</v>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="C110" s="1">
         <v>6</v>
@@ -2466,10 +2466,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>304</v>
       </c>
       <c r="C111" s="1">
         <v>0</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="C113" s="1">
         <v>198</v>
@@ -2499,10 +2499,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="C114" s="1">
         <v>17</v>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="C115" s="1">
         <v>5</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="C116" s="1">
         <v>0</v>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="C117" s="1">
         <v>0</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="C118" s="1">
         <v>0</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="C119" s="1">
         <v>0</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="C120" s="1">
         <v>6</v>
@@ -2713,44 +2713,44 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="4">
         <f>9*60+21</f>
@@ -2761,18 +2761,18 @@
         <v>573</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="1">
         <v>31</v>
@@ -2781,13 +2781,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="1">
         <v>39</v>
@@ -2798,16 +2798,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
@@ -2818,13 +2818,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="E8" s="1">
         <v>266</v>
@@ -2835,13 +2835,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1">
         <v>57</v>
@@ -2852,13 +2852,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E10" s="1">
         <v>183</v>
@@ -2869,13 +2869,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="E11" s="1">
         <v>378</v>
@@ -2886,13 +2886,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1">
         <v>185</v>
@@ -2903,13 +2903,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="E13" s="1">
         <v>49</v>
@@ -2918,18 +2918,18 @@
         <v>69</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="E14" s="1">
         <v>686</v>
@@ -2938,18 +2938,18 @@
         <v>707</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E15" s="1">
         <f>6*60+42</f>
@@ -2962,13 +2962,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E16" s="1">
         <f>13*60+55</f>
@@ -2981,13 +2981,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E17" s="1">
         <f>5*60+25</f>
@@ -3000,13 +3000,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="E18" s="4">
         <f>3*60+44</f>
@@ -3018,13 +3018,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="4">
         <f>9*60+55</f>
@@ -3036,13 +3036,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="E20" s="4">
         <f>13*60+24</f>
@@ -3055,13 +3055,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="E21" s="1">
         <v>149</v>
@@ -3072,13 +3072,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="E22" s="1">
         <v>28</v>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="E23" s="1">
         <v>61</v>
@@ -3106,13 +3106,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -3120,13 +3120,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="E25" s="1">
         <v>70</v>
@@ -3135,18 +3135,18 @@
         <v>87</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E26" s="4">
         <f>7*60+7</f>
@@ -3159,13 +3159,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E27" s="1">
         <v>175</v>
@@ -3221,12 +3221,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTIFS(Sange!A2:A1000, "*", Sange!B2:B1000, "*", Sange!C2:C1000, "&gt;=0")</f>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:C3" si="0">B4-B2</f>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4">
         <f>COUNTIF(Sange!A3:A1000, "*")</f>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4">
         <f>COUNTIFS(Ideer!A2:A1000, "Sang", Ideer!B2:B1000, "*")</f>
@@ -3298,66 +3298,66 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/Examples/Børne Klub 100/Børne Klub 100.xlsx
+++ b/Examples/Børne Klub 100/Børne Klub 100.xlsx
@@ -1,41 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Dokumenter\DTU\Vektor\klub-100-maker\Examples\Børne Klub 100\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B74159E1-9D3A-4209-AA41-EACA3A224F82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5EAFEE2E-C7AB-4B3B-A49A-542EF3F40A9F}"/>
-  <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sange" sheetId="1" r:id="rId1"/>
-    <sheet name="Shoutouts" sheetId="2" r:id="rId2"/>
-    <sheet name="Stats" sheetId="3" r:id="rId3"/>
-    <sheet name="Ideer" sheetId="4" r:id="rId4"/>
+    <sheet state="visible" name="Sange" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Shoutouts" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Stats" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Ideer" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="341">
   <si>
     <t>Antal sange</t>
   </si>
   <si>
+    <t>Sang - Kunstner</t>
+  </si>
+  <si>
     <t>Shoutout titel</t>
   </si>
   <si>
@@ -48,6 +34,24 @@
     <t>link</t>
   </si>
   <si>
+    <t>starttidspunkt (i sek)</t>
+  </si>
+  <si>
+    <t>Shoutout</t>
+  </si>
+  <si>
+    <t>kommentar</t>
+  </si>
+  <si>
+    <t>tilføjet til YT playliste</t>
+  </si>
+  <si>
+    <t>Disney Sjov  Intro</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bfp4zusaQ5g</t>
+  </si>
+  <si>
     <t>Serie/program</t>
   </si>
   <si>
@@ -63,42 +67,33 @@
     <t>downloades</t>
   </si>
   <si>
-    <t>kommentar</t>
-  </si>
-  <si>
-    <t>starttidspunkt (i sek)</t>
+    <t>Tilføjet til YT playliste</t>
   </si>
   <si>
     <t>ik nødvendig fra SC og youtube</t>
   </si>
   <si>
-    <t>Shoutout</t>
-  </si>
-  <si>
     <t>Denne her er god og tyk</t>
   </si>
   <si>
     <t>Bamses billedbog</t>
   </si>
   <si>
-    <t>Disney Sjov  Intro</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Bfp4zusaQ5g</t>
-  </si>
-  <si>
     <t>S1E1</t>
   </si>
   <si>
+    <t>Nøjjj, det for børn</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>https://www.dr.dk/drtv/se/bamses-billedbog_-laver-baal_129427</t>
   </si>
   <si>
     <t>Mangler felter</t>
   </si>
   <si>
-    <t>Nøjjj, det for børn</t>
-  </si>
-  <si>
     <t>Phineas og Ferb intro sang</t>
   </si>
   <si>
@@ -108,15 +103,18 @@
     <t>Total antal forslag</t>
   </si>
   <si>
+    <t>Ideer</t>
+  </si>
+  <si>
     <t>Vi er tilbage - B-Boys</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=o-x1JyU-iL4</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=o-x1JyU-iL4&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Coming soon to Disney dvd</t>
   </si>
   <si>
@@ -126,12 +124,18 @@
     <t>https://www.youtube.com/watch?v=Td8t_ZELZXU&amp;feature=youtu.be</t>
   </si>
   <si>
+    <t>Sange fra YT</t>
+  </si>
+  <si>
     <t>Du er den som jeg vil ha - Emma</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=jEdSPrz8A5Y</t>
   </si>
   <si>
+    <t>Sange fra SC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vi skal lige lave børn </t>
   </si>
   <si>
@@ -141,13 +145,19 @@
     <t>https://www.youtube.com/watch?v=Ceyiktp5eJ4&amp;feature=youtu.be</t>
   </si>
   <si>
-    <t>Ideer</t>
+    <t>Total</t>
   </si>
   <si>
     <t>Morten Skikdpadde</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=GcFF5k5F9zQ&amp;feature=youtu.be</t>
+    <t>https://www.youtube.com/watch?v=GcFF5k5F9zQ</t>
+  </si>
+  <si>
+    <t>Nøøj, det for børn</t>
+  </si>
+  <si>
+    <t>Intro</t>
   </si>
   <si>
     <t xml:space="preserve">Nisse Kalypso - Nissebanden </t>
@@ -156,10 +166,16 @@
     <t>https://www.youtube.com/watch?v=gOa7fagiQj4</t>
   </si>
   <si>
-    <t>Nøøj, det for børn</t>
-  </si>
-  <si>
-    <t>Intro</t>
+    <t>Alle ved man må have våben</t>
+  </si>
+  <si>
+    <t>Osman og jeppe</t>
+  </si>
+  <si>
+    <t>Maskingeværet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zrENu91GP1Y</t>
   </si>
   <si>
     <t>Gitchee Gitchee Goo - Phineas and Ferb</t>
@@ -171,19 +187,19 @@
     <t xml:space="preserve"> ændret til dansk</t>
   </si>
   <si>
+    <t>Bamse tager dig på røven</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jeg er på vej - Bjørne brødre </t>
   </si>
   <si>
+    <t>Bamse og Kylling</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=wTCO5tZ7zZ8</t>
   </si>
   <si>
-    <t>Alle ved man må have våben</t>
-  </si>
-  <si>
-    <t>Osman og jeppe</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zrENu91GP1Y</t>
+    <t>https://www.youtube.com/watch?v=Fz8LqjaNCyI</t>
   </si>
   <si>
     <t>Circle of life (Trap remix) - Unknown</t>
@@ -201,25 +217,40 @@
     <t>ændret til dansk</t>
   </si>
   <si>
-    <t>Bamse tager dig på røven</t>
-  </si>
-  <si>
     <t>Lokes rapsodi - Loke</t>
   </si>
   <si>
-    <t>Bamse og Kylling</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=MU_FmphZ4xA</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Fz8LqjaNCyI</t>
-  </si>
-  <si>
     <t>Min egen Maria - Chanlex</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=NObY2YeJ7Oc&amp;feature=youtu.be</t>
+    <t>https://www.youtube.com/watch?v=NObY2YeJ7Oc</t>
+  </si>
+  <si>
+    <t>Hulubulu Lotte hvor er du henne (pitched down) - unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ue4PHfMWKzA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bom tjikka bom - Kaj &amp; Andrea </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ftzn_aOVrLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabiens drøm - Anne Gadegaard </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S2O1tscwNlw</t>
+  </si>
+  <si>
+    <t>Jeg tror det kaldes kærlighed - Shout</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rklhva6Fhgk</t>
   </si>
   <si>
     <t>Nogen gode greb</t>
@@ -231,10 +262,13 @@
     <t>https://www.youtube.com/watch?v=6PdX-afuP64</t>
   </si>
   <si>
-    <t>Hulubulu Lotte hvor er du henne (pitched down) - unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ue4PHfMWKzA</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Idé</t>
+  </si>
+  <si>
+    <t>Programmer der muligvis indeholder guld</t>
   </si>
   <si>
     <t>Lemonade, Monssiour</t>
@@ -246,69 +280,81 @@
     <t>https://www.youtube.com/watch?v=DkcH5MKMysA</t>
   </si>
   <si>
-    <t xml:space="preserve">Bom tjikka bom - Kaj &amp; Andrea </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ftzn_aOVrLM</t>
+    <t xml:space="preserve">Rutsj! </t>
+  </si>
+  <si>
+    <t>Sang</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=npKxyOu-APA</t>
+  </si>
+  <si>
+    <t>Magnus og myggen</t>
+  </si>
+  <si>
+    <t>Alt du har lært er at tabe- clayton</t>
+  </si>
+  <si>
+    <t>anna og lotte</t>
+  </si>
+  <si>
+    <t>sigurds bjørnetime intro, bruges som introsang</t>
+  </si>
+  <si>
+    <t>kaj og andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigurds bjørnetime </t>
+  </si>
+  <si>
+    <t>10 timer, klip selv</t>
   </si>
   <si>
     <t>Esbjerg har Sild</t>
   </si>
   <si>
-    <t xml:space="preserve">Arabiens drøm - Anne Gadegaard </t>
+    <t>Dansk Intro til Bubbibjørnene</t>
+  </si>
+  <si>
+    <t>vi boller - Nanna</t>
   </si>
   <si>
     <t>Skærmtrolden Hugo</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=S2O1tscwNlw</t>
+    <t>osman og jeppe</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=c1rXyw__1tU</t>
   </si>
   <si>
-    <t>Jeg tror det kaldes kærlighed - Shout</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rklhva6Fhgk&amp;feature=youtu.be</t>
+    <t>https://www.youtube.com/watch?v=VEVDcuqW01Y</t>
+  </si>
+  <si>
+    <t>Far, mor og blypperne - Peter frodin og Hella joof</t>
   </si>
   <si>
     <t>Vi klapper ik af folk der kommer for sent</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=OWnY_oN9EbE</t>
+  </si>
+  <si>
     <t>Amigo</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Wr9RAk-n4wc&amp;t=19s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rutsj! </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=J6p0S--1958</t>
-  </si>
-  <si>
-    <t>10 timer, klip selv</t>
-  </si>
-  <si>
-    <t>Dansk Intro til Bubbibjørnene</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEVDcuqW01Y</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Idé</t>
-  </si>
-  <si>
-    <t>Programmer der muligvis indeholder guld</t>
+    <t>https://www.youtube.com/watch?v=Wr9RAk-n4wc</t>
   </si>
   <si>
     <t>kunne fungere godt midt på, til folk der joiner sent</t>
   </si>
   <si>
+    <t xml:space="preserve">Havet er skønt - Sebastian </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vMfObaxYBV8</t>
+  </si>
+  <si>
     <t>Teletubbies siger farvel</t>
   </si>
   <si>
@@ -318,120 +364,87 @@
     <t>https://www.youtube.com/watch?v=_b93e5BtcaY</t>
   </si>
   <si>
-    <t>Far, mor og blypperne - Peter frodin og Hella joof</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OWnY_oN9EbE</t>
+    <t>Vi er ikke rigtig voksne - Bøllebob</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4kt_PNlX6vw</t>
   </si>
   <si>
     <t>afslutning, farvel</t>
   </si>
   <si>
-    <t xml:space="preserve">Havet er skønt - Sebastian </t>
-  </si>
-  <si>
     <t>Osman og døden</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=vMfObaxYBV8</t>
-  </si>
-  <si>
     <t>Osman og Jeppe</t>
   </si>
   <si>
+    <t>Hans Pilgaard er død</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=FzYJNAH_GW8</t>
   </si>
   <si>
-    <t>Sang</t>
-  </si>
-  <si>
-    <t>Magnus og myggen</t>
-  </si>
-  <si>
-    <t>Alt du har lært er at tabe- clayton</t>
-  </si>
-  <si>
-    <t>anna og lotte</t>
-  </si>
-  <si>
-    <t>sigurds bjørnetime intro, bruges som introsang</t>
-  </si>
-  <si>
-    <t>kaj og andrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigurds bjørnetime </t>
-  </si>
-  <si>
-    <t>Vi er ikke rigtig voksne - Bøllebob</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4kt_PNlX6vw</t>
-  </si>
-  <si>
-    <t>vi boller - Nanna</t>
-  </si>
-  <si>
-    <t>osman og jeppe</t>
+    <t>Pilfingerdansen (remix) - Sigurd</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y6J6PYjTzxo</t>
+  </si>
+  <si>
+    <t>Dakmand Per</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QhqS4YJzx-o</t>
   </si>
   <si>
     <t>Det koster penge at nyde nuet</t>
   </si>
   <si>
-    <t>Pilfingerdansen (remix) - Sigurd</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y6J6PYjTzxo</t>
-  </si>
-  <si>
-    <t>Dakmand Per</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QhqS4YJzx-o</t>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y9ongoen_oQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jodlesangen MDS Remix - Bamse og Kylling </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3QIR60h3s84</t>
   </si>
   <si>
     <t>Jeg vil hellere have Hans Pilgaard på panden</t>
   </si>
   <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y9ongoen_oQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jodlesangen MDS Remix - Bamse og Kylling </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3QIR60h3s84</t>
+    <t>Venindetanker - Nanna</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tRAcn0TmOeA</t>
   </si>
   <si>
     <t>Kage uden kakaomælk, fy for satan</t>
   </si>
   <si>
+    <t>Smutvejen</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=1TnftK66cOE</t>
   </si>
   <si>
-    <t>Venindetanker - Nanna</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tRAcn0TmOeA&amp;feature=youtu.be</t>
-  </si>
-  <si>
     <t>Teen Titans dansk Intro</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=0P0TWueNjrQ</t>
   </si>
   <si>
+    <t>Bamses Billedbog Introsang - Bamse</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IihH6cFXzI0</t>
+  </si>
+  <si>
     <t>De ville savne mig meget mere</t>
   </si>
   <si>
-    <t>Bamses Billedbog Introsang - Bamse</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IihH6cFXzI0</t>
-  </si>
-  <si>
     <t>Mickeys Hus (House of Mouse) Intro Dansk/danish</t>
   </si>
   <si>
@@ -441,13 +454,16 @@
     <t>Det totalt taken</t>
   </si>
   <si>
+    <t>Dobbelgængeren</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=qUp0eZlIMj8</t>
   </si>
   <si>
     <t>Max pinlig intro</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=aCpanIj3uv0&amp;list=PLVZFxulTtgNO64S-jrop7Sqw2Lq2Qan59&amp;index=101</t>
+    <t>https://www.youtube.com/watch?v=aCpanIj3uv0</t>
   </si>
   <si>
     <t>Tænker du det samme som jeg B1</t>
@@ -456,15 +472,21 @@
     <t>Bananer i pyjamas</t>
   </si>
   <si>
+    <t>Vi er på vej til dig - Bamse og Kylling</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=WEj9Bz7Lpac&amp;list=PLYM7bxRyJmQje343zAGGjywUcGSqCigNG&amp;index=1</t>
   </si>
   <si>
-    <t>Vi er på vej til dig - Bamse og Kylling</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=7-vfYIkQ72I</t>
   </si>
   <si>
+    <t>Nana - Sebastian</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yTJ4Uh8g8Nk</t>
+  </si>
+  <si>
     <t>Hvad laver i? Vi boller</t>
   </si>
   <si>
@@ -474,37 +496,37 @@
     <t>https://www.youtube.com/watch?v=h1kBNCRB6hw</t>
   </si>
   <si>
-    <t>Nana - Sebastian</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yTJ4Uh8g8Nk</t>
-  </si>
-  <si>
     <t>Jeg syntes også jeg var god</t>
   </si>
   <si>
     <t>Kaj og Andrea</t>
   </si>
   <si>
+    <t>Vi gir den op - B-boys</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=bguCPjnCcMo&amp;list=PL-hyVqFVpC9GxX55uz07bbl7VmTgDdSpX&amp;index=4</t>
   </si>
   <si>
-    <t>Vi gir den op - B-boys</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ERJQZZ2Osrw</t>
   </si>
   <si>
+    <t>Wizards of Waverly place - Selena Gomez</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R0YeziOBa1k</t>
+  </si>
+  <si>
     <t>Er du pip gok påske-plim?</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=9YiywIPxtIM</t>
   </si>
   <si>
-    <t>Wizards of Waverly place - Selena Gomez</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=R0YeziOBa1k</t>
+    <t>Tramper Torben - Hjulene på bussen</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/tramperentorben/hjulene-pa-bussen-korer-rundt-remix-velkommen-til-torbens-legestue</t>
   </si>
   <si>
     <t>Tihvertifald</t>
@@ -513,25 +535,19 @@
     <t>https://www.facebook.com/drp1/videos/2003008406655092</t>
   </si>
   <si>
-    <t>Tramper Torben - Hjulene på bussen</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/tramperentorben/hjulene-pa-bussen-korer-rundt-remix-velkommen-til-torbens-legestue</t>
-  </si>
-  <si>
     <t>Lilo &amp; Stitch Intro/Theme [HQ]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=WREobnmYO4M</t>
+  </si>
+  <si>
     <t>Snakker du pensionistisk</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=WREobnmYO4M</t>
-  </si>
-  <si>
     <t>Fremmed som mig - Stig Rossen</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=0Z3BgCuo8Fg&amp;feature=youtu.be</t>
+    <t>https://www.youtube.com/watch?v=0Z3BgCuo8Fg</t>
   </si>
   <si>
     <t xml:space="preserve">Bim Bam Busse - Ingolf &amp; Haletudserne </t>
@@ -540,19 +556,28 @@
     <t>https://www.youtube.com/watch?v=sDUQHMXTTRA</t>
   </si>
   <si>
+    <t>Du kunne have set dig for</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ftzn_aOVrLM&amp;list=PLfk9z2Rny97VW2-M8VeEuQaVkf7OJBiGK</t>
+  </si>
+  <si>
     <t>ændret til en med mere sang</t>
   </si>
   <si>
-    <t>Du kunne have set dig for</t>
-  </si>
-  <si>
     <t>Bim Bam Busse - Pattesutter</t>
   </si>
   <si>
     <t>https://soundcloud.com/skraldespand/pattesutter-bim-bam-busse</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ftzn_aOVrLM&amp;list=PLfk9z2Rny97VW2-M8VeEuQaVkf7OJBiGK</t>
+    <t>Its over 9000</t>
+  </si>
+  <si>
+    <t>Dragon ball</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SiMHTK15Pik</t>
   </si>
   <si>
     <t>overvej om vi skal have begge versioner og ik kun den her</t>
@@ -561,7 +586,10 @@
     <t>Menneskesøn - Stig Rossen</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rtB-LQY5EVY&amp;feature=youtu.be</t>
+    <t>https://www.youtube.com/watch?v=rtB-LQY5EVY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Brum introsang - Unknown</t>
@@ -588,7 +616,7 @@
     <t>Rasmus Klump intro</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=d77NrgRlSK0&amp;feature=youtu.be</t>
+    <t>https://www.youtube.com/watch?v=d77NrgRlSK0</t>
   </si>
   <si>
     <t>Inspector Gadget theme song</t>
@@ -624,7 +652,7 @@
     <t>Hjulene på bussen - TramperTorben</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=_4tMVK30gig&amp;list=RD_4tMVK30gig&amp;start_radio=1&amp;t=63</t>
+    <t>https://www.youtube.com/watch?v=_4tMVK30gig</t>
   </si>
   <si>
     <t>Martin og Ketil - Martin og Ketil</t>
@@ -645,13 +673,13 @@
     <t>Op til dig - Alberte</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=49qOFAUIOik&amp;feature=youtu.be</t>
+    <t>https://www.youtube.com/watch?v=49qOFAUIOik</t>
   </si>
   <si>
     <t>Trashin the Camp - Phil Collins</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=I6TQZMA5XV4&amp;feature=youtu.be</t>
+    <t>https://www.youtube.com/watch?v=I6TQZMA5XV4</t>
   </si>
   <si>
     <t>Nissernes Ø - Nissebanden</t>
@@ -675,7 +703,7 @@
     <t>Pippi Langstrømpe</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=RB-5-091k-w&amp;feature=youtu.be</t>
+    <t>https://www.youtube.com/watch?v=RB-5-091k-w</t>
   </si>
   <si>
     <t xml:space="preserve">Tro på os to - SEB </t>
@@ -807,7 +835,7 @@
     <t>Teenage Mutant Ninja Turtles</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=nNa2Fr6CA0E&amp;list=PLMp6IMUAXDQVi1PcBcuznEyUrWC2HS239&amp;index=31</t>
+    <t>https://www.youtube.com/watch?v=nNa2Fr6CA0E</t>
   </si>
   <si>
     <t xml:space="preserve">Brandy og Hr. Vimse intro Danish/Dansk - Unknown </t>
@@ -825,7 +853,7 @@
     <t>Sigurds bjørnetime intro - Sigurd</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=3WDUu-1iBRQ&amp;list=PLVZFxulTtgNO64S-jrop7Sqw2Lq2Qan59&amp;index=120</t>
+    <t>https://www.youtube.com/watch?v=3WDUu-1iBRQ</t>
   </si>
   <si>
     <t>Mit allerfarligste sted - Bamse</t>
@@ -873,7 +901,7 @@
     <t>I just can't wait to be king - Lion King</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=0bGjlvukgHU&amp;feature=youtu.be</t>
+    <t>https://www.youtube.com/watch?v=0bGjlvukgHU</t>
   </si>
   <si>
     <t xml:space="preserve">Substituterne - Substituterne </t>
@@ -984,7 +1012,7 @@
     <t>Historietimen intro</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=cF0MPiI_YPY&amp;list=PLVZFxulTtgNO64S-jrop7Sqw2Lq2Qan59&amp;index=155</t>
+    <t>https://www.youtube.com/watch?v=cF0MPiI_YPY</t>
   </si>
   <si>
     <t>F for får intro</t>
@@ -996,52 +1024,55 @@
     <t>Dyrepasser sang - Sebastian</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=bnw3Dywvs2s&amp;list=PLVZFxulTtgNO64S-jrop7Sqw2Lq2Qan59&amp;index=194</t>
-  </si>
-  <si>
-    <t>Sang - Kunstner</t>
+    <t>https://www.youtube.com/watch?v=bnw3Dywvs2s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oggy og karkelakerne </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YBdekGSC68A</t>
+  </si>
+  <si>
+    <t>Anton min hemmelig ven sangen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-6Q7RxsGjM0&amp;fbclid=IwAR3-45CipK7vRR2W3w4_4cDOCJav2sWPD5l3xS5TOlR_toC9JqRQu77MJ6Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="7">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
@@ -1051,7 +1082,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1061,46 +1092,63 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1290,1467 +1338,1831 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="67.1171875" customWidth="1"/>
-    <col min="2" max="2" width="46.703125" customWidth="1"/>
-    <col min="3" max="3" width="19.5859375" customWidth="1"/>
-    <col min="4" max="4" width="20.1171875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="67.14"/>
+    <col customWidth="1" min="2" max="2" width="64.29"/>
+    <col customWidth="1" min="3" max="3" width="19.57"/>
+    <col customWidth="1" min="4" max="4" width="20.14"/>
+    <col customWidth="1" min="5" max="5" width="49.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C72" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C81" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C96" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C101" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C107" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C110" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C59" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C61" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C63" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C64" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C67" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C69" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C71" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C74" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C76" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C77" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C78" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C79" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C81" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C90" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C92" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C96" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C99" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C101" s="1">
-        <v>18</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C105" s="1">
-        <v>80</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C107" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C110" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>307</v>
-      </c>
       <c r="C113" s="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>198.0</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114">
       <c r="A114" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>309</v>
+        <v>323</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="C114" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>17.0</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>311</v>
+        <v>325</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="C115" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>5.0</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>313</v>
+        <v>327</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="C116" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>0.0</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>315</v>
+        <v>329</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="C117" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>0.0</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118">
       <c r="A118" s="1" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="C118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>0.0</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>319</v>
+        <v>333</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="C119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>0.0</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120">
       <c r="A120" s="1" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C120" s="1">
-        <v>6</v>
+        <v>6.0</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B56" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B58" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B59" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B60" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B61" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B62" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B63" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B64" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B68" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B69" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B70" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B71" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B72" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B73" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B74" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B75" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B76" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B77" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B78" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B79" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B80" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B81" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B82" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B83" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B84" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B85" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B86" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B87" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B88" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B90" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B91" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B92" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B93" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B96" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B98" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B99" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B100" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B101" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B104" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B105" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B106" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B107" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B108" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B109" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B110" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B111" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B112" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B113" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B114" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B115" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B116" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B117" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B118" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B119" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B120" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
+    <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId14" ref="B16"/>
+    <hyperlink r:id="rId15" ref="B17"/>
+    <hyperlink r:id="rId16" ref="B18"/>
+    <hyperlink r:id="rId17" ref="B19"/>
+    <hyperlink r:id="rId18" ref="B20"/>
+    <hyperlink r:id="rId19" ref="B22"/>
+    <hyperlink r:id="rId20" ref="B23"/>
+    <hyperlink r:id="rId21" ref="B24"/>
+    <hyperlink r:id="rId22" ref="B25"/>
+    <hyperlink r:id="rId23" ref="B26"/>
+    <hyperlink r:id="rId24" ref="B27"/>
+    <hyperlink r:id="rId25" ref="B28"/>
+    <hyperlink r:id="rId26" ref="B29"/>
+    <hyperlink r:id="rId27" ref="B30"/>
+    <hyperlink r:id="rId28" ref="B31"/>
+    <hyperlink r:id="rId29" ref="B32"/>
+    <hyperlink r:id="rId30" ref="B33"/>
+    <hyperlink r:id="rId31" ref="B34"/>
+    <hyperlink r:id="rId32" ref="B35"/>
+    <hyperlink r:id="rId33" ref="B36"/>
+    <hyperlink r:id="rId34" ref="B37"/>
+    <hyperlink r:id="rId35" ref="B38"/>
+    <hyperlink r:id="rId36" ref="B39"/>
+    <hyperlink r:id="rId37" ref="B40"/>
+    <hyperlink r:id="rId38" ref="B41"/>
+    <hyperlink r:id="rId39" ref="B42"/>
+    <hyperlink r:id="rId40" ref="B43"/>
+    <hyperlink r:id="rId41" ref="B44"/>
+    <hyperlink r:id="rId42" ref="B45"/>
+    <hyperlink r:id="rId43" ref="B46"/>
+    <hyperlink r:id="rId44" ref="B47"/>
+    <hyperlink r:id="rId45" ref="B48"/>
+    <hyperlink r:id="rId46" ref="B49"/>
+    <hyperlink r:id="rId47" ref="B50"/>
+    <hyperlink r:id="rId48" ref="B51"/>
+    <hyperlink r:id="rId49" ref="B52"/>
+    <hyperlink r:id="rId50" ref="B53"/>
+    <hyperlink r:id="rId51" ref="B54"/>
+    <hyperlink r:id="rId52" ref="B56"/>
+    <hyperlink r:id="rId53" ref="B57"/>
+    <hyperlink r:id="rId54" ref="B58"/>
+    <hyperlink r:id="rId55" ref="B59"/>
+    <hyperlink r:id="rId56" ref="B60"/>
+    <hyperlink r:id="rId57" ref="B61"/>
+    <hyperlink r:id="rId58" ref="B62"/>
+    <hyperlink r:id="rId59" ref="B63"/>
+    <hyperlink r:id="rId60" ref="B64"/>
+    <hyperlink r:id="rId61" ref="B65"/>
+    <hyperlink r:id="rId62" ref="B66"/>
+    <hyperlink r:id="rId63" ref="B67"/>
+    <hyperlink r:id="rId64" ref="B68"/>
+    <hyperlink r:id="rId65" ref="B69"/>
+    <hyperlink r:id="rId66" ref="B70"/>
+    <hyperlink r:id="rId67" ref="B71"/>
+    <hyperlink r:id="rId68" ref="B72"/>
+    <hyperlink r:id="rId69" ref="B73"/>
+    <hyperlink r:id="rId70" ref="B74"/>
+    <hyperlink r:id="rId71" ref="B75"/>
+    <hyperlink r:id="rId72" ref="B76"/>
+    <hyperlink r:id="rId73" ref="B77"/>
+    <hyperlink r:id="rId74" ref="B78"/>
+    <hyperlink r:id="rId75" ref="B79"/>
+    <hyperlink r:id="rId76" ref="B80"/>
+    <hyperlink r:id="rId77" ref="B81"/>
+    <hyperlink r:id="rId78" ref="B82"/>
+    <hyperlink r:id="rId79" ref="B83"/>
+    <hyperlink r:id="rId80" ref="B84"/>
+    <hyperlink r:id="rId81" ref="B85"/>
+    <hyperlink r:id="rId82" ref="B86"/>
+    <hyperlink r:id="rId83" ref="B87"/>
+    <hyperlink r:id="rId84" ref="B88"/>
+    <hyperlink r:id="rId85" ref="B90"/>
+    <hyperlink r:id="rId86" ref="B91"/>
+    <hyperlink r:id="rId87" ref="B92"/>
+    <hyperlink r:id="rId88" ref="B93"/>
+    <hyperlink r:id="rId89" ref="B96"/>
+    <hyperlink r:id="rId90" ref="B98"/>
+    <hyperlink r:id="rId91" ref="B99"/>
+    <hyperlink r:id="rId92" ref="B100"/>
+    <hyperlink r:id="rId93" ref="B101"/>
+    <hyperlink r:id="rId94" ref="B104"/>
+    <hyperlink r:id="rId95" ref="B105"/>
+    <hyperlink r:id="rId96" ref="B106"/>
+    <hyperlink r:id="rId97" ref="B107"/>
+    <hyperlink r:id="rId98" ref="B108"/>
+    <hyperlink r:id="rId99" ref="B109"/>
+    <hyperlink r:id="rId100" ref="B110"/>
+    <hyperlink r:id="rId101" ref="B111"/>
+    <hyperlink r:id="rId102" ref="B112"/>
+    <hyperlink r:id="rId103" ref="B113"/>
+    <hyperlink r:id="rId104" ref="B114"/>
+    <hyperlink r:id="rId105" ref="B115"/>
+    <hyperlink r:id="rId106" ref="B116"/>
+    <hyperlink r:id="rId107" ref="B117"/>
+    <hyperlink r:id="rId108" ref="B118"/>
+    <hyperlink r:id="rId109" ref="B119"/>
+    <hyperlink r:id="rId110" ref="B120"/>
+    <hyperlink r:id="rId111" ref="B121"/>
+    <hyperlink r:id="rId112" ref="B122"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId113"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="42.87890625" customWidth="1"/>
-    <col min="2" max="2" width="17.703125" customWidth="1"/>
-    <col min="4" max="4" width="53.41015625" customWidth="1"/>
-    <col min="7" max="7" width="28.703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="42.86"/>
+    <col customWidth="1" min="2" max="2" width="17.71"/>
+    <col customWidth="1" min="4" max="4" width="53.43"/>
+    <col customWidth="1" min="7" max="7" width="28.71"/>
+    <col customWidth="1" min="8" max="8" width="41.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="4">
         <f>9*60+21</f>
@@ -2761,195 +3173,231 @@
         <v>573</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E5" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E6" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="F6" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>49.0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="F7" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>24.0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="E8" s="1">
-        <v>266</v>
+        <v>266.0</v>
       </c>
       <c r="F8" s="1">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>277.0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="1">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="F9" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>66.0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E10" s="1">
-        <v>183</v>
+        <v>183.0</v>
       </c>
       <c r="F10" s="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>192.0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="E11" s="1">
-        <v>378</v>
+        <v>378.0</v>
       </c>
       <c r="F11" s="1">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>383.0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>77</v>
+        <v>101</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="E12" s="1">
-        <v>185</v>
+        <v>185.0</v>
       </c>
       <c r="F12" s="1">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>191.0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>82</v>
+        <v>108</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="E13" s="1">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="F13" s="1">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>94</v>
+        <v>114</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="E14" s="1">
-        <v>686</v>
+        <v>686.0</v>
       </c>
       <c r="F14" s="1">
-        <v>707</v>
+        <v>707.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>102</v>
+        <v>120</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="E15" s="1">
         <f>6*60+42</f>
@@ -2959,16 +3407,22 @@
         <f>6*60+53</f>
         <v>413</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>102</v>
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="E16" s="1">
         <f>13*60+55</f>
@@ -2978,16 +3432,22 @@
         <f>14*60+11</f>
         <v>851</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>102</v>
+        <v>120</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="E17" s="1">
         <f>5*60+25</f>
@@ -2997,52 +3457,70 @@
         <f>5*60+40</f>
         <v>340</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="E18" s="4">
         <f>3*60+44</f>
         <v>224</v>
       </c>
       <c r="F18" s="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>228.0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="E19" s="4">
         <f>9*60+55</f>
         <v>595</v>
       </c>
       <c r="F19" s="1">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>605.0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>136</v>
+        <v>120</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="E20" s="4">
         <f>13*60+24</f>
@@ -3052,101 +3530,119 @@
         <f>13*60+35</f>
         <v>815</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>141</v>
+        <v>151</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="E21" s="1">
-        <v>149</v>
+        <v>149.0</v>
       </c>
       <c r="F21" s="1">
+        <v>158.0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>146</v>
+      <c r="D22" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="E22" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="F22" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>38.0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>151</v>
+        <v>161</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="E23" s="1">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="F23" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>71.0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>155</v>
+        <v>59</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>159</v>
+        <v>59</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="E25" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="F25" s="1">
-        <v>87</v>
+        <v>87.0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>102</v>
+        <v>120</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="E26" s="4">
         <f>7*60+7</f>
@@ -3156,116 +3652,141 @@
         <f>7*60+30</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="E27" s="1">
-        <v>175</v>
+        <v>175.0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D20" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D21" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D22" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D23" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D24" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D25" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D26" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D27" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink r:id="rId1" ref="D4"/>
+    <hyperlink r:id="rId2" ref="D5"/>
+    <hyperlink r:id="rId3" ref="D6"/>
+    <hyperlink r:id="rId4" ref="D7"/>
+    <hyperlink r:id="rId5" ref="D8"/>
+    <hyperlink r:id="rId6" ref="D9"/>
+    <hyperlink r:id="rId7" ref="D10"/>
+    <hyperlink r:id="rId8" ref="D11"/>
+    <hyperlink r:id="rId9" ref="D12"/>
+    <hyperlink r:id="rId10" ref="D13"/>
+    <hyperlink r:id="rId11" ref="D14"/>
+    <hyperlink r:id="rId12" ref="D15"/>
+    <hyperlink r:id="rId13" ref="D16"/>
+    <hyperlink r:id="rId14" ref="D17"/>
+    <hyperlink r:id="rId15" ref="D18"/>
+    <hyperlink r:id="rId16" ref="D19"/>
+    <hyperlink r:id="rId17" ref="D20"/>
+    <hyperlink r:id="rId18" ref="D21"/>
+    <hyperlink r:id="rId19" ref="D22"/>
+    <hyperlink r:id="rId20" ref="D23"/>
+    <hyperlink r:id="rId21" ref="D24"/>
+    <hyperlink r:id="rId22" ref="D25"/>
+    <hyperlink r:id="rId23" ref="D26"/>
+    <hyperlink r:id="rId24" ref="D27"/>
+    <hyperlink r:id="rId25" ref="D28"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.29296875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="17.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTIFS(Sange!A2:A1000, "*", Sange!B2:B1000, "*", Sange!C2:C1000, "&gt;=0")</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIFS(Shoutouts!A2:A1000, "*", Shoutouts!D2:D1000, "*", Shoutouts!E2:E1000, "&gt;=0")</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:C3" si="0">B4-B2</f>
+        <f t="shared" ref="B3:C3" si="1">B4-B2</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4">
         <f>COUNTIF(Sange!A3:A1000, "*")</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4">
         <f>COUNTIFS(Shoutouts!A3:A1000, "*")</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4">
         <f>COUNTIFS(Ideer!A2:A1000, "Sang", Ideer!B2:B1000, "*")</f>
@@ -3276,3075 +3797,3097 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4">
+        <f>COUNTIF(Sange!B2:B1000, "*youtube*")</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4">
+        <f>COUNTIF(Sange!B2:B1000, "*soundcloud*")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="27.1171875" customWidth="1"/>
-    <col min="5" max="5" width="35.1171875" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="27.14"/>
+    <col customWidth="1" min="5" max="5" width="35.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="4"/>
       <c r="E3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249">
       <c r="A249" s="4"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250">
       <c r="A250" s="4"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251">
       <c r="A251" s="4"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252">
       <c r="A252" s="4"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253">
       <c r="A253" s="4"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254">
       <c r="A254" s="4"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255">
       <c r="A255" s="4"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256">
       <c r="A256" s="4"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257">
       <c r="A257" s="4"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258">
       <c r="A258" s="4"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259">
       <c r="A259" s="4"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260">
       <c r="A260" s="4"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261">
       <c r="A261" s="4"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262">
       <c r="A262" s="4"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263">
       <c r="A263" s="4"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264">
       <c r="A264" s="4"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265">
       <c r="A265" s="4"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266">
       <c r="A266" s="4"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267">
       <c r="A267" s="4"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268">
       <c r="A268" s="4"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269">
       <c r="A269" s="4"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270">
       <c r="A270" s="4"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271">
       <c r="A271" s="4"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272">
       <c r="A272" s="4"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273">
       <c r="A273" s="4"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274">
       <c r="A274" s="4"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275">
       <c r="A275" s="4"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276">
       <c r="A276" s="4"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277">
       <c r="A277" s="4"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278">
       <c r="A278" s="4"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279">
       <c r="A279" s="4"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280">
       <c r="A280" s="4"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281">
       <c r="A281" s="4"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282">
       <c r="A282" s="4"/>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283">
       <c r="A283" s="4"/>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284">
       <c r="A284" s="4"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285">
       <c r="A285" s="4"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286">
       <c r="A286" s="4"/>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287">
       <c r="A287" s="4"/>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288">
       <c r="A288" s="4"/>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289">
       <c r="A289" s="4"/>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290">
       <c r="A290" s="4"/>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291">
       <c r="A291" s="4"/>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292">
       <c r="A292" s="4"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293">
       <c r="A293" s="4"/>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294">
       <c r="A294" s="4"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295">
       <c r="A295" s="4"/>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296">
       <c r="A296" s="4"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297">
       <c r="A297" s="4"/>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298">
       <c r="A298" s="4"/>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299">
       <c r="A299" s="4"/>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300">
       <c r="A300" s="4"/>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301">
       <c r="A301" s="4"/>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302">
       <c r="A302" s="4"/>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303">
       <c r="A303" s="4"/>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304">
       <c r="A304" s="4"/>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305">
       <c r="A305" s="4"/>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306">
       <c r="A306" s="4"/>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307">
       <c r="A307" s="4"/>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308">
       <c r="A308" s="4"/>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309">
       <c r="A309" s="4"/>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310">
       <c r="A310" s="4"/>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311">
       <c r="A311" s="4"/>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312">
       <c r="A312" s="4"/>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313">
       <c r="A313" s="4"/>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314">
       <c r="A314" s="4"/>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315">
       <c r="A315" s="4"/>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316">
       <c r="A316" s="4"/>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317">
       <c r="A317" s="4"/>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318">
       <c r="A318" s="4"/>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319">
       <c r="A319" s="4"/>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320">
       <c r="A320" s="4"/>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321">
       <c r="A321" s="4"/>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322">
       <c r="A322" s="4"/>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323">
       <c r="A323" s="4"/>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324">
       <c r="A324" s="4"/>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325">
       <c r="A325" s="4"/>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326">
       <c r="A326" s="4"/>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327">
       <c r="A327" s="4"/>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328">
       <c r="A328" s="4"/>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329">
       <c r="A329" s="4"/>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330">
       <c r="A330" s="4"/>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331">
       <c r="A331" s="4"/>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332">
       <c r="A332" s="4"/>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333">
       <c r="A333" s="4"/>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334">
       <c r="A334" s="4"/>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335">
       <c r="A335" s="4"/>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336">
       <c r="A336" s="4"/>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337">
       <c r="A337" s="4"/>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338">
       <c r="A338" s="4"/>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339">
       <c r="A339" s="4"/>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340">
       <c r="A340" s="4"/>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341">
       <c r="A341" s="4"/>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342">
       <c r="A342" s="4"/>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343">
       <c r="A343" s="4"/>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344">
       <c r="A344" s="4"/>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345">
       <c r="A345" s="4"/>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346">
       <c r="A346" s="4"/>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347">
       <c r="A347" s="4"/>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348">
       <c r="A348" s="4"/>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349">
       <c r="A349" s="4"/>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350">
       <c r="A350" s="4"/>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351">
       <c r="A351" s="4"/>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352">
       <c r="A352" s="4"/>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353">
       <c r="A353" s="4"/>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354">
       <c r="A354" s="4"/>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355">
       <c r="A355" s="4"/>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356">
       <c r="A356" s="4"/>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357">
       <c r="A357" s="4"/>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358">
       <c r="A358" s="4"/>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359">
       <c r="A359" s="4"/>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360">
       <c r="A360" s="4"/>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361">
       <c r="A361" s="4"/>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362">
       <c r="A362" s="4"/>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363">
       <c r="A363" s="4"/>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364">
       <c r="A364" s="4"/>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365">
       <c r="A365" s="4"/>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366">
       <c r="A366" s="4"/>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367">
       <c r="A367" s="4"/>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368">
       <c r="A368" s="4"/>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369">
       <c r="A369" s="4"/>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370">
       <c r="A370" s="4"/>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371">
       <c r="A371" s="4"/>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372">
       <c r="A372" s="4"/>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373">
       <c r="A373" s="4"/>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374">
       <c r="A374" s="4"/>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375">
       <c r="A375" s="4"/>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376">
       <c r="A376" s="4"/>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377">
       <c r="A377" s="4"/>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378">
       <c r="A378" s="4"/>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379">
       <c r="A379" s="4"/>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380">
       <c r="A380" s="4"/>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381">
       <c r="A381" s="4"/>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382">
       <c r="A382" s="4"/>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383">
       <c r="A383" s="4"/>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384">
       <c r="A384" s="4"/>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385">
       <c r="A385" s="4"/>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386">
       <c r="A386" s="4"/>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387">
       <c r="A387" s="4"/>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388">
       <c r="A388" s="4"/>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389">
       <c r="A389" s="4"/>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390">
       <c r="A390" s="4"/>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391">
       <c r="A391" s="4"/>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392">
       <c r="A392" s="4"/>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393">
       <c r="A393" s="4"/>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394">
       <c r="A394" s="4"/>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395">
       <c r="A395" s="4"/>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396">
       <c r="A396" s="4"/>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397">
       <c r="A397" s="4"/>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398">
       <c r="A398" s="4"/>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399">
       <c r="A399" s="4"/>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400">
       <c r="A400" s="4"/>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401">
       <c r="A401" s="4"/>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402">
       <c r="A402" s="4"/>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403">
       <c r="A403" s="4"/>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404">
       <c r="A404" s="4"/>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405">
       <c r="A405" s="4"/>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406">
       <c r="A406" s="4"/>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407">
       <c r="A407" s="4"/>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408">
       <c r="A408" s="4"/>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409">
       <c r="A409" s="4"/>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410">
       <c r="A410" s="4"/>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411">
       <c r="A411" s="4"/>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412">
       <c r="A412" s="4"/>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413">
       <c r="A413" s="4"/>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414">
       <c r="A414" s="4"/>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415">
       <c r="A415" s="4"/>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416">
       <c r="A416" s="4"/>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417">
       <c r="A417" s="4"/>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418">
       <c r="A418" s="4"/>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419">
       <c r="A419" s="4"/>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420">
       <c r="A420" s="4"/>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421">
       <c r="A421" s="4"/>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422">
       <c r="A422" s="4"/>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423">
       <c r="A423" s="4"/>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424">
       <c r="A424" s="4"/>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425">
       <c r="A425" s="4"/>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426">
       <c r="A426" s="4"/>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427">
       <c r="A427" s="4"/>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428">
       <c r="A428" s="4"/>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429">
       <c r="A429" s="4"/>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430">
       <c r="A430" s="4"/>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431">
       <c r="A431" s="4"/>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432">
       <c r="A432" s="4"/>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433">
       <c r="A433" s="4"/>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434">
       <c r="A434" s="4"/>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435">
       <c r="A435" s="4"/>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436">
       <c r="A436" s="4"/>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437">
       <c r="A437" s="4"/>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438">
       <c r="A438" s="4"/>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439">
       <c r="A439" s="4"/>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440">
       <c r="A440" s="4"/>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441">
       <c r="A441" s="4"/>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442">
       <c r="A442" s="4"/>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443">
       <c r="A443" s="4"/>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444">
       <c r="A444" s="4"/>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445">
       <c r="A445" s="4"/>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446">
       <c r="A446" s="4"/>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447">
       <c r="A447" s="4"/>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448">
       <c r="A448" s="4"/>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449">
       <c r="A449" s="4"/>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450">
       <c r="A450" s="4"/>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451">
       <c r="A451" s="4"/>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452">
       <c r="A452" s="4"/>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453">
       <c r="A453" s="4"/>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454">
       <c r="A454" s="4"/>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455">
       <c r="A455" s="4"/>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456">
       <c r="A456" s="4"/>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457">
       <c r="A457" s="4"/>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458">
       <c r="A458" s="4"/>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459">
       <c r="A459" s="4"/>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460">
       <c r="A460" s="4"/>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461">
       <c r="A461" s="4"/>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462">
       <c r="A462" s="4"/>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463">
       <c r="A463" s="4"/>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464">
       <c r="A464" s="4"/>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465">
       <c r="A465" s="4"/>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466">
       <c r="A466" s="4"/>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467">
       <c r="A467" s="4"/>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468">
       <c r="A468" s="4"/>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469">
       <c r="A469" s="4"/>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470">
       <c r="A470" s="4"/>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471">
       <c r="A471" s="4"/>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472">
       <c r="A472" s="4"/>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473">
       <c r="A473" s="4"/>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474">
       <c r="A474" s="4"/>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475">
       <c r="A475" s="4"/>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476">
       <c r="A476" s="4"/>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477">
       <c r="A477" s="4"/>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478">
       <c r="A478" s="4"/>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479">
       <c r="A479" s="4"/>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480">
       <c r="A480" s="4"/>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481">
       <c r="A481" s="4"/>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482">
       <c r="A482" s="4"/>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483">
       <c r="A483" s="4"/>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484">
       <c r="A484" s="4"/>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485">
       <c r="A485" s="4"/>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486">
       <c r="A486" s="4"/>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487">
       <c r="A487" s="4"/>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488">
       <c r="A488" s="4"/>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489">
       <c r="A489" s="4"/>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490">
       <c r="A490" s="4"/>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491">
       <c r="A491" s="4"/>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492">
       <c r="A492" s="4"/>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493">
       <c r="A493" s="4"/>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494">
       <c r="A494" s="4"/>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495">
       <c r="A495" s="4"/>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496">
       <c r="A496" s="4"/>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497">
       <c r="A497" s="4"/>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498">
       <c r="A498" s="4"/>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499">
       <c r="A499" s="4"/>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500">
       <c r="A500" s="4"/>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501">
       <c r="A501" s="4"/>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502">
       <c r="A502" s="4"/>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503">
       <c r="A503" s="4"/>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504">
       <c r="A504" s="4"/>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505">
       <c r="A505" s="4"/>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506">
       <c r="A506" s="4"/>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507">
       <c r="A507" s="4"/>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508">
       <c r="A508" s="4"/>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509">
       <c r="A509" s="4"/>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510">
       <c r="A510" s="4"/>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511">
       <c r="A511" s="4"/>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512">
       <c r="A512" s="4"/>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513">
       <c r="A513" s="4"/>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514">
       <c r="A514" s="4"/>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515">
       <c r="A515" s="4"/>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516">
       <c r="A516" s="4"/>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517">
       <c r="A517" s="4"/>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518">
       <c r="A518" s="4"/>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519">
       <c r="A519" s="4"/>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520">
       <c r="A520" s="4"/>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521">
       <c r="A521" s="4"/>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522">
       <c r="A522" s="4"/>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523">
       <c r="A523" s="4"/>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524">
       <c r="A524" s="4"/>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525">
       <c r="A525" s="4"/>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526">
       <c r="A526" s="4"/>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527">
       <c r="A527" s="4"/>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528">
       <c r="A528" s="4"/>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529">
       <c r="A529" s="4"/>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530">
       <c r="A530" s="4"/>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531">
       <c r="A531" s="4"/>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532">
       <c r="A532" s="4"/>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533">
       <c r="A533" s="4"/>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534">
       <c r="A534" s="4"/>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535">
       <c r="A535" s="4"/>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536">
       <c r="A536" s="4"/>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537">
       <c r="A537" s="4"/>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538">
       <c r="A538" s="4"/>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539">
       <c r="A539" s="4"/>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540">
       <c r="A540" s="4"/>
     </row>
-    <row r="541" spans="1:1">
+    <row r="541">
       <c r="A541" s="4"/>
     </row>
-    <row r="542" spans="1:1">
+    <row r="542">
       <c r="A542" s="4"/>
     </row>
-    <row r="543" spans="1:1">
+    <row r="543">
       <c r="A543" s="4"/>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544">
       <c r="A544" s="4"/>
     </row>
-    <row r="545" spans="1:1">
+    <row r="545">
       <c r="A545" s="4"/>
     </row>
-    <row r="546" spans="1:1">
+    <row r="546">
       <c r="A546" s="4"/>
     </row>
-    <row r="547" spans="1:1">
+    <row r="547">
       <c r="A547" s="4"/>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548">
       <c r="A548" s="4"/>
     </row>
-    <row r="549" spans="1:1">
+    <row r="549">
       <c r="A549" s="4"/>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550">
       <c r="A550" s="4"/>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551">
       <c r="A551" s="4"/>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552">
       <c r="A552" s="4"/>
     </row>
-    <row r="553" spans="1:1">
+    <row r="553">
       <c r="A553" s="4"/>
     </row>
-    <row r="554" spans="1:1">
+    <row r="554">
       <c r="A554" s="4"/>
     </row>
-    <row r="555" spans="1:1">
+    <row r="555">
       <c r="A555" s="4"/>
     </row>
-    <row r="556" spans="1:1">
+    <row r="556">
       <c r="A556" s="4"/>
     </row>
-    <row r="557" spans="1:1">
+    <row r="557">
       <c r="A557" s="4"/>
     </row>
-    <row r="558" spans="1:1">
+    <row r="558">
       <c r="A558" s="4"/>
     </row>
-    <row r="559" spans="1:1">
+    <row r="559">
       <c r="A559" s="4"/>
     </row>
-    <row r="560" spans="1:1">
+    <row r="560">
       <c r="A560" s="4"/>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561">
       <c r="A561" s="4"/>
     </row>
-    <row r="562" spans="1:1">
+    <row r="562">
       <c r="A562" s="4"/>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563">
       <c r="A563" s="4"/>
     </row>
-    <row r="564" spans="1:1">
+    <row r="564">
       <c r="A564" s="4"/>
     </row>
-    <row r="565" spans="1:1">
+    <row r="565">
       <c r="A565" s="4"/>
     </row>
-    <row r="566" spans="1:1">
+    <row r="566">
       <c r="A566" s="4"/>
     </row>
-    <row r="567" spans="1:1">
+    <row r="567">
       <c r="A567" s="4"/>
     </row>
-    <row r="568" spans="1:1">
+    <row r="568">
       <c r="A568" s="4"/>
     </row>
-    <row r="569" spans="1:1">
+    <row r="569">
       <c r="A569" s="4"/>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570">
       <c r="A570" s="4"/>
     </row>
-    <row r="571" spans="1:1">
+    <row r="571">
       <c r="A571" s="4"/>
     </row>
-    <row r="572" spans="1:1">
+    <row r="572">
       <c r="A572" s="4"/>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573">
       <c r="A573" s="4"/>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574">
       <c r="A574" s="4"/>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575">
       <c r="A575" s="4"/>
     </row>
-    <row r="576" spans="1:1">
+    <row r="576">
       <c r="A576" s="4"/>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577">
       <c r="A577" s="4"/>
     </row>
-    <row r="578" spans="1:1">
+    <row r="578">
       <c r="A578" s="4"/>
     </row>
-    <row r="579" spans="1:1">
+    <row r="579">
       <c r="A579" s="4"/>
     </row>
-    <row r="580" spans="1:1">
+    <row r="580">
       <c r="A580" s="4"/>
     </row>
-    <row r="581" spans="1:1">
+    <row r="581">
       <c r="A581" s="4"/>
     </row>
-    <row r="582" spans="1:1">
+    <row r="582">
       <c r="A582" s="4"/>
     </row>
-    <row r="583" spans="1:1">
+    <row r="583">
       <c r="A583" s="4"/>
     </row>
-    <row r="584" spans="1:1">
+    <row r="584">
       <c r="A584" s="4"/>
     </row>
-    <row r="585" spans="1:1">
+    <row r="585">
       <c r="A585" s="4"/>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586">
       <c r="A586" s="4"/>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587">
       <c r="A587" s="4"/>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588">
       <c r="A588" s="4"/>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589">
       <c r="A589" s="4"/>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590">
       <c r="A590" s="4"/>
     </row>
-    <row r="591" spans="1:1">
+    <row r="591">
       <c r="A591" s="4"/>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592">
       <c r="A592" s="4"/>
     </row>
-    <row r="593" spans="1:1">
+    <row r="593">
       <c r="A593" s="4"/>
     </row>
-    <row r="594" spans="1:1">
+    <row r="594">
       <c r="A594" s="4"/>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595">
       <c r="A595" s="4"/>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596">
       <c r="A596" s="4"/>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597">
       <c r="A597" s="4"/>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598">
       <c r="A598" s="4"/>
     </row>
-    <row r="599" spans="1:1">
+    <row r="599">
       <c r="A599" s="4"/>
     </row>
-    <row r="600" spans="1:1">
+    <row r="600">
       <c r="A600" s="4"/>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601">
       <c r="A601" s="4"/>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602">
       <c r="A602" s="4"/>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603">
       <c r="A603" s="4"/>
     </row>
-    <row r="604" spans="1:1">
+    <row r="604">
       <c r="A604" s="4"/>
     </row>
-    <row r="605" spans="1:1">
+    <row r="605">
       <c r="A605" s="4"/>
     </row>
-    <row r="606" spans="1:1">
+    <row r="606">
       <c r="A606" s="4"/>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607">
       <c r="A607" s="4"/>
     </row>
-    <row r="608" spans="1:1">
+    <row r="608">
       <c r="A608" s="4"/>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609">
       <c r="A609" s="4"/>
     </row>
-    <row r="610" spans="1:1">
+    <row r="610">
       <c r="A610" s="4"/>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611">
       <c r="A611" s="4"/>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612">
       <c r="A612" s="4"/>
     </row>
-    <row r="613" spans="1:1">
+    <row r="613">
       <c r="A613" s="4"/>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614">
       <c r="A614" s="4"/>
     </row>
-    <row r="615" spans="1:1">
+    <row r="615">
       <c r="A615" s="4"/>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616">
       <c r="A616" s="4"/>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617">
       <c r="A617" s="4"/>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618">
       <c r="A618" s="4"/>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619">
       <c r="A619" s="4"/>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620">
       <c r="A620" s="4"/>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621">
       <c r="A621" s="4"/>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622">
       <c r="A622" s="4"/>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623">
       <c r="A623" s="4"/>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624">
       <c r="A624" s="4"/>
     </row>
-    <row r="625" spans="1:1">
+    <row r="625">
       <c r="A625" s="4"/>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626">
       <c r="A626" s="4"/>
     </row>
-    <row r="627" spans="1:1">
+    <row r="627">
       <c r="A627" s="4"/>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628">
       <c r="A628" s="4"/>
     </row>
-    <row r="629" spans="1:1">
+    <row r="629">
       <c r="A629" s="4"/>
     </row>
-    <row r="630" spans="1:1">
+    <row r="630">
       <c r="A630" s="4"/>
     </row>
-    <row r="631" spans="1:1">
+    <row r="631">
       <c r="A631" s="4"/>
     </row>
-    <row r="632" spans="1:1">
+    <row r="632">
       <c r="A632" s="4"/>
     </row>
-    <row r="633" spans="1:1">
+    <row r="633">
       <c r="A633" s="4"/>
     </row>
-    <row r="634" spans="1:1">
+    <row r="634">
       <c r="A634" s="4"/>
     </row>
-    <row r="635" spans="1:1">
+    <row r="635">
       <c r="A635" s="4"/>
     </row>
-    <row r="636" spans="1:1">
+    <row r="636">
       <c r="A636" s="4"/>
     </row>
-    <row r="637" spans="1:1">
+    <row r="637">
       <c r="A637" s="4"/>
     </row>
-    <row r="638" spans="1:1">
+    <row r="638">
       <c r="A638" s="4"/>
     </row>
-    <row r="639" spans="1:1">
+    <row r="639">
       <c r="A639" s="4"/>
     </row>
-    <row r="640" spans="1:1">
+    <row r="640">
       <c r="A640" s="4"/>
     </row>
-    <row r="641" spans="1:1">
+    <row r="641">
       <c r="A641" s="4"/>
     </row>
-    <row r="642" spans="1:1">
+    <row r="642">
       <c r="A642" s="4"/>
     </row>
-    <row r="643" spans="1:1">
+    <row r="643">
       <c r="A643" s="4"/>
     </row>
-    <row r="644" spans="1:1">
+    <row r="644">
       <c r="A644" s="4"/>
     </row>
-    <row r="645" spans="1:1">
+    <row r="645">
       <c r="A645" s="4"/>
     </row>
-    <row r="646" spans="1:1">
+    <row r="646">
       <c r="A646" s="4"/>
     </row>
-    <row r="647" spans="1:1">
+    <row r="647">
       <c r="A647" s="4"/>
     </row>
-    <row r="648" spans="1:1">
+    <row r="648">
       <c r="A648" s="4"/>
     </row>
-    <row r="649" spans="1:1">
+    <row r="649">
       <c r="A649" s="4"/>
     </row>
-    <row r="650" spans="1:1">
+    <row r="650">
       <c r="A650" s="4"/>
     </row>
-    <row r="651" spans="1:1">
+    <row r="651">
       <c r="A651" s="4"/>
     </row>
-    <row r="652" spans="1:1">
+    <row r="652">
       <c r="A652" s="4"/>
     </row>
-    <row r="653" spans="1:1">
+    <row r="653">
       <c r="A653" s="4"/>
     </row>
-    <row r="654" spans="1:1">
+    <row r="654">
       <c r="A654" s="4"/>
     </row>
-    <row r="655" spans="1:1">
+    <row r="655">
       <c r="A655" s="4"/>
     </row>
-    <row r="656" spans="1:1">
+    <row r="656">
       <c r="A656" s="4"/>
     </row>
-    <row r="657" spans="1:1">
+    <row r="657">
       <c r="A657" s="4"/>
     </row>
-    <row r="658" spans="1:1">
+    <row r="658">
       <c r="A658" s="4"/>
     </row>
-    <row r="659" spans="1:1">
+    <row r="659">
       <c r="A659" s="4"/>
     </row>
-    <row r="660" spans="1:1">
+    <row r="660">
       <c r="A660" s="4"/>
     </row>
-    <row r="661" spans="1:1">
+    <row r="661">
       <c r="A661" s="4"/>
     </row>
-    <row r="662" spans="1:1">
+    <row r="662">
       <c r="A662" s="4"/>
     </row>
-    <row r="663" spans="1:1">
+    <row r="663">
       <c r="A663" s="4"/>
     </row>
-    <row r="664" spans="1:1">
+    <row r="664">
       <c r="A664" s="4"/>
     </row>
-    <row r="665" spans="1:1">
+    <row r="665">
       <c r="A665" s="4"/>
     </row>
-    <row r="666" spans="1:1">
+    <row r="666">
       <c r="A666" s="4"/>
     </row>
-    <row r="667" spans="1:1">
+    <row r="667">
       <c r="A667" s="4"/>
     </row>
-    <row r="668" spans="1:1">
+    <row r="668">
       <c r="A668" s="4"/>
     </row>
-    <row r="669" spans="1:1">
+    <row r="669">
       <c r="A669" s="4"/>
     </row>
-    <row r="670" spans="1:1">
+    <row r="670">
       <c r="A670" s="4"/>
     </row>
-    <row r="671" spans="1:1">
+    <row r="671">
       <c r="A671" s="4"/>
     </row>
-    <row r="672" spans="1:1">
+    <row r="672">
       <c r="A672" s="4"/>
     </row>
-    <row r="673" spans="1:1">
+    <row r="673">
       <c r="A673" s="4"/>
     </row>
-    <row r="674" spans="1:1">
+    <row r="674">
       <c r="A674" s="4"/>
     </row>
-    <row r="675" spans="1:1">
+    <row r="675">
       <c r="A675" s="4"/>
     </row>
-    <row r="676" spans="1:1">
+    <row r="676">
       <c r="A676" s="4"/>
     </row>
-    <row r="677" spans="1:1">
+    <row r="677">
       <c r="A677" s="4"/>
     </row>
-    <row r="678" spans="1:1">
+    <row r="678">
       <c r="A678" s="4"/>
     </row>
-    <row r="679" spans="1:1">
+    <row r="679">
       <c r="A679" s="4"/>
     </row>
-    <row r="680" spans="1:1">
+    <row r="680">
       <c r="A680" s="4"/>
     </row>
-    <row r="681" spans="1:1">
+    <row r="681">
       <c r="A681" s="4"/>
     </row>
-    <row r="682" spans="1:1">
+    <row r="682">
       <c r="A682" s="4"/>
     </row>
-    <row r="683" spans="1:1">
+    <row r="683">
       <c r="A683" s="4"/>
     </row>
-    <row r="684" spans="1:1">
+    <row r="684">
       <c r="A684" s="4"/>
     </row>
-    <row r="685" spans="1:1">
+    <row r="685">
       <c r="A685" s="4"/>
     </row>
-    <row r="686" spans="1:1">
+    <row r="686">
       <c r="A686" s="4"/>
     </row>
-    <row r="687" spans="1:1">
+    <row r="687">
       <c r="A687" s="4"/>
     </row>
-    <row r="688" spans="1:1">
+    <row r="688">
       <c r="A688" s="4"/>
     </row>
-    <row r="689" spans="1:1">
+    <row r="689">
       <c r="A689" s="4"/>
     </row>
-    <row r="690" spans="1:1">
+    <row r="690">
       <c r="A690" s="4"/>
     </row>
-    <row r="691" spans="1:1">
+    <row r="691">
       <c r="A691" s="4"/>
     </row>
-    <row r="692" spans="1:1">
+    <row r="692">
       <c r="A692" s="4"/>
     </row>
-    <row r="693" spans="1:1">
+    <row r="693">
       <c r="A693" s="4"/>
     </row>
-    <row r="694" spans="1:1">
+    <row r="694">
       <c r="A694" s="4"/>
     </row>
-    <row r="695" spans="1:1">
+    <row r="695">
       <c r="A695" s="4"/>
     </row>
-    <row r="696" spans="1:1">
+    <row r="696">
       <c r="A696" s="4"/>
     </row>
-    <row r="697" spans="1:1">
+    <row r="697">
       <c r="A697" s="4"/>
     </row>
-    <row r="698" spans="1:1">
+    <row r="698">
       <c r="A698" s="4"/>
     </row>
-    <row r="699" spans="1:1">
+    <row r="699">
       <c r="A699" s="4"/>
     </row>
-    <row r="700" spans="1:1">
+    <row r="700">
       <c r="A700" s="4"/>
     </row>
-    <row r="701" spans="1:1">
+    <row r="701">
       <c r="A701" s="4"/>
     </row>
-    <row r="702" spans="1:1">
+    <row r="702">
       <c r="A702" s="4"/>
     </row>
-    <row r="703" spans="1:1">
+    <row r="703">
       <c r="A703" s="4"/>
     </row>
-    <row r="704" spans="1:1">
+    <row r="704">
       <c r="A704" s="4"/>
     </row>
-    <row r="705" spans="1:1">
+    <row r="705">
       <c r="A705" s="4"/>
     </row>
-    <row r="706" spans="1:1">
+    <row r="706">
       <c r="A706" s="4"/>
     </row>
-    <row r="707" spans="1:1">
+    <row r="707">
       <c r="A707" s="4"/>
     </row>
-    <row r="708" spans="1:1">
+    <row r="708">
       <c r="A708" s="4"/>
     </row>
-    <row r="709" spans="1:1">
+    <row r="709">
       <c r="A709" s="4"/>
     </row>
-    <row r="710" spans="1:1">
+    <row r="710">
       <c r="A710" s="4"/>
     </row>
-    <row r="711" spans="1:1">
+    <row r="711">
       <c r="A711" s="4"/>
     </row>
-    <row r="712" spans="1:1">
+    <row r="712">
       <c r="A712" s="4"/>
     </row>
-    <row r="713" spans="1:1">
+    <row r="713">
       <c r="A713" s="4"/>
     </row>
-    <row r="714" spans="1:1">
+    <row r="714">
       <c r="A714" s="4"/>
     </row>
-    <row r="715" spans="1:1">
+    <row r="715">
       <c r="A715" s="4"/>
     </row>
-    <row r="716" spans="1:1">
+    <row r="716">
       <c r="A716" s="4"/>
     </row>
-    <row r="717" spans="1:1">
+    <row r="717">
       <c r="A717" s="4"/>
     </row>
-    <row r="718" spans="1:1">
+    <row r="718">
       <c r="A718" s="4"/>
     </row>
-    <row r="719" spans="1:1">
+    <row r="719">
       <c r="A719" s="4"/>
     </row>
-    <row r="720" spans="1:1">
+    <row r="720">
       <c r="A720" s="4"/>
     </row>
-    <row r="721" spans="1:1">
+    <row r="721">
       <c r="A721" s="4"/>
     </row>
-    <row r="722" spans="1:1">
+    <row r="722">
       <c r="A722" s="4"/>
     </row>
-    <row r="723" spans="1:1">
+    <row r="723">
       <c r="A723" s="4"/>
     </row>
-    <row r="724" spans="1:1">
+    <row r="724">
       <c r="A724" s="4"/>
     </row>
-    <row r="725" spans="1:1">
+    <row r="725">
       <c r="A725" s="4"/>
     </row>
-    <row r="726" spans="1:1">
+    <row r="726">
       <c r="A726" s="4"/>
     </row>
-    <row r="727" spans="1:1">
+    <row r="727">
       <c r="A727" s="4"/>
     </row>
-    <row r="728" spans="1:1">
+    <row r="728">
       <c r="A728" s="4"/>
     </row>
-    <row r="729" spans="1:1">
+    <row r="729">
       <c r="A729" s="4"/>
     </row>
-    <row r="730" spans="1:1">
+    <row r="730">
       <c r="A730" s="4"/>
     </row>
-    <row r="731" spans="1:1">
+    <row r="731">
       <c r="A731" s="4"/>
     </row>
-    <row r="732" spans="1:1">
+    <row r="732">
       <c r="A732" s="4"/>
     </row>
-    <row r="733" spans="1:1">
+    <row r="733">
       <c r="A733" s="4"/>
     </row>
-    <row r="734" spans="1:1">
+    <row r="734">
       <c r="A734" s="4"/>
     </row>
-    <row r="735" spans="1:1">
+    <row r="735">
       <c r="A735" s="4"/>
     </row>
-    <row r="736" spans="1:1">
+    <row r="736">
       <c r="A736" s="4"/>
     </row>
-    <row r="737" spans="1:1">
+    <row r="737">
       <c r="A737" s="4"/>
     </row>
-    <row r="738" spans="1:1">
+    <row r="738">
       <c r="A738" s="4"/>
     </row>
-    <row r="739" spans="1:1">
+    <row r="739">
       <c r="A739" s="4"/>
     </row>
-    <row r="740" spans="1:1">
+    <row r="740">
       <c r="A740" s="4"/>
     </row>
-    <row r="741" spans="1:1">
+    <row r="741">
       <c r="A741" s="4"/>
     </row>
-    <row r="742" spans="1:1">
+    <row r="742">
       <c r="A742" s="4"/>
     </row>
-    <row r="743" spans="1:1">
+    <row r="743">
       <c r="A743" s="4"/>
     </row>
-    <row r="744" spans="1:1">
+    <row r="744">
       <c r="A744" s="4"/>
     </row>
-    <row r="745" spans="1:1">
+    <row r="745">
       <c r="A745" s="4"/>
     </row>
-    <row r="746" spans="1:1">
+    <row r="746">
       <c r="A746" s="4"/>
     </row>
-    <row r="747" spans="1:1">
+    <row r="747">
       <c r="A747" s="4"/>
     </row>
-    <row r="748" spans="1:1">
+    <row r="748">
       <c r="A748" s="4"/>
     </row>
-    <row r="749" spans="1:1">
+    <row r="749">
       <c r="A749" s="4"/>
     </row>
-    <row r="750" spans="1:1">
+    <row r="750">
       <c r="A750" s="4"/>
     </row>
-    <row r="751" spans="1:1">
+    <row r="751">
       <c r="A751" s="4"/>
     </row>
-    <row r="752" spans="1:1">
+    <row r="752">
       <c r="A752" s="4"/>
     </row>
-    <row r="753" spans="1:1">
+    <row r="753">
       <c r="A753" s="4"/>
     </row>
-    <row r="754" spans="1:1">
+    <row r="754">
       <c r="A754" s="4"/>
     </row>
-    <row r="755" spans="1:1">
+    <row r="755">
       <c r="A755" s="4"/>
     </row>
-    <row r="756" spans="1:1">
+    <row r="756">
       <c r="A756" s="4"/>
     </row>
-    <row r="757" spans="1:1">
+    <row r="757">
       <c r="A757" s="4"/>
     </row>
-    <row r="758" spans="1:1">
+    <row r="758">
       <c r="A758" s="4"/>
     </row>
-    <row r="759" spans="1:1">
+    <row r="759">
       <c r="A759" s="4"/>
     </row>
-    <row r="760" spans="1:1">
+    <row r="760">
       <c r="A760" s="4"/>
     </row>
-    <row r="761" spans="1:1">
+    <row r="761">
       <c r="A761" s="4"/>
     </row>
-    <row r="762" spans="1:1">
+    <row r="762">
       <c r="A762" s="4"/>
     </row>
-    <row r="763" spans="1:1">
+    <row r="763">
       <c r="A763" s="4"/>
     </row>
-    <row r="764" spans="1:1">
+    <row r="764">
       <c r="A764" s="4"/>
     </row>
-    <row r="765" spans="1:1">
+    <row r="765">
       <c r="A765" s="4"/>
     </row>
-    <row r="766" spans="1:1">
+    <row r="766">
       <c r="A766" s="4"/>
     </row>
-    <row r="767" spans="1:1">
+    <row r="767">
       <c r="A767" s="4"/>
     </row>
-    <row r="768" spans="1:1">
+    <row r="768">
       <c r="A768" s="4"/>
     </row>
-    <row r="769" spans="1:1">
+    <row r="769">
       <c r="A769" s="4"/>
     </row>
-    <row r="770" spans="1:1">
+    <row r="770">
       <c r="A770" s="4"/>
     </row>
-    <row r="771" spans="1:1">
+    <row r="771">
       <c r="A771" s="4"/>
     </row>
-    <row r="772" spans="1:1">
+    <row r="772">
       <c r="A772" s="4"/>
     </row>
-    <row r="773" spans="1:1">
+    <row r="773">
       <c r="A773" s="4"/>
     </row>
-    <row r="774" spans="1:1">
+    <row r="774">
       <c r="A774" s="4"/>
     </row>
-    <row r="775" spans="1:1">
+    <row r="775">
       <c r="A775" s="4"/>
     </row>
-    <row r="776" spans="1:1">
+    <row r="776">
       <c r="A776" s="4"/>
     </row>
-    <row r="777" spans="1:1">
+    <row r="777">
       <c r="A777" s="4"/>
     </row>
-    <row r="778" spans="1:1">
+    <row r="778">
       <c r="A778" s="4"/>
     </row>
-    <row r="779" spans="1:1">
+    <row r="779">
       <c r="A779" s="4"/>
     </row>
-    <row r="780" spans="1:1">
+    <row r="780">
       <c r="A780" s="4"/>
     </row>
-    <row r="781" spans="1:1">
+    <row r="781">
       <c r="A781" s="4"/>
     </row>
-    <row r="782" spans="1:1">
+    <row r="782">
       <c r="A782" s="4"/>
     </row>
-    <row r="783" spans="1:1">
+    <row r="783">
       <c r="A783" s="4"/>
     </row>
-    <row r="784" spans="1:1">
+    <row r="784">
       <c r="A784" s="4"/>
     </row>
-    <row r="785" spans="1:1">
+    <row r="785">
       <c r="A785" s="4"/>
     </row>
-    <row r="786" spans="1:1">
+    <row r="786">
       <c r="A786" s="4"/>
     </row>
-    <row r="787" spans="1:1">
+    <row r="787">
       <c r="A787" s="4"/>
     </row>
-    <row r="788" spans="1:1">
+    <row r="788">
       <c r="A788" s="4"/>
     </row>
-    <row r="789" spans="1:1">
+    <row r="789">
       <c r="A789" s="4"/>
     </row>
-    <row r="790" spans="1:1">
+    <row r="790">
       <c r="A790" s="4"/>
     </row>
-    <row r="791" spans="1:1">
+    <row r="791">
       <c r="A791" s="4"/>
     </row>
-    <row r="792" spans="1:1">
+    <row r="792">
       <c r="A792" s="4"/>
     </row>
-    <row r="793" spans="1:1">
+    <row r="793">
       <c r="A793" s="4"/>
     </row>
-    <row r="794" spans="1:1">
+    <row r="794">
       <c r="A794" s="4"/>
     </row>
-    <row r="795" spans="1:1">
+    <row r="795">
       <c r="A795" s="4"/>
     </row>
-    <row r="796" spans="1:1">
+    <row r="796">
       <c r="A796" s="4"/>
     </row>
-    <row r="797" spans="1:1">
+    <row r="797">
       <c r="A797" s="4"/>
     </row>
-    <row r="798" spans="1:1">
+    <row r="798">
       <c r="A798" s="4"/>
     </row>
-    <row r="799" spans="1:1">
+    <row r="799">
       <c r="A799" s="4"/>
     </row>
-    <row r="800" spans="1:1">
+    <row r="800">
       <c r="A800" s="4"/>
     </row>
-    <row r="801" spans="1:1">
+    <row r="801">
       <c r="A801" s="4"/>
     </row>
-    <row r="802" spans="1:1">
+    <row r="802">
       <c r="A802" s="4"/>
     </row>
-    <row r="803" spans="1:1">
+    <row r="803">
       <c r="A803" s="4"/>
     </row>
-    <row r="804" spans="1:1">
+    <row r="804">
       <c r="A804" s="4"/>
     </row>
-    <row r="805" spans="1:1">
+    <row r="805">
       <c r="A805" s="4"/>
     </row>
-    <row r="806" spans="1:1">
+    <row r="806">
       <c r="A806" s="4"/>
     </row>
-    <row r="807" spans="1:1">
+    <row r="807">
       <c r="A807" s="4"/>
     </row>
-    <row r="808" spans="1:1">
+    <row r="808">
       <c r="A808" s="4"/>
     </row>
-    <row r="809" spans="1:1">
+    <row r="809">
       <c r="A809" s="4"/>
     </row>
-    <row r="810" spans="1:1">
+    <row r="810">
       <c r="A810" s="4"/>
     </row>
-    <row r="811" spans="1:1">
+    <row r="811">
       <c r="A811" s="4"/>
     </row>
-    <row r="812" spans="1:1">
+    <row r="812">
       <c r="A812" s="4"/>
     </row>
-    <row r="813" spans="1:1">
+    <row r="813">
       <c r="A813" s="4"/>
     </row>
-    <row r="814" spans="1:1">
+    <row r="814">
       <c r="A814" s="4"/>
     </row>
-    <row r="815" spans="1:1">
+    <row r="815">
       <c r="A815" s="4"/>
     </row>
-    <row r="816" spans="1:1">
+    <row r="816">
       <c r="A816" s="4"/>
     </row>
-    <row r="817" spans="1:1">
+    <row r="817">
       <c r="A817" s="4"/>
     </row>
-    <row r="818" spans="1:1">
+    <row r="818">
       <c r="A818" s="4"/>
     </row>
-    <row r="819" spans="1:1">
+    <row r="819">
       <c r="A819" s="4"/>
     </row>
-    <row r="820" spans="1:1">
+    <row r="820">
       <c r="A820" s="4"/>
     </row>
-    <row r="821" spans="1:1">
+    <row r="821">
       <c r="A821" s="4"/>
     </row>
-    <row r="822" spans="1:1">
+    <row r="822">
       <c r="A822" s="4"/>
     </row>
-    <row r="823" spans="1:1">
+    <row r="823">
       <c r="A823" s="4"/>
     </row>
-    <row r="824" spans="1:1">
+    <row r="824">
       <c r="A824" s="4"/>
     </row>
-    <row r="825" spans="1:1">
+    <row r="825">
       <c r="A825" s="4"/>
     </row>
-    <row r="826" spans="1:1">
+    <row r="826">
       <c r="A826" s="4"/>
     </row>
-    <row r="827" spans="1:1">
+    <row r="827">
       <c r="A827" s="4"/>
     </row>
-    <row r="828" spans="1:1">
+    <row r="828">
       <c r="A828" s="4"/>
     </row>
-    <row r="829" spans="1:1">
+    <row r="829">
       <c r="A829" s="4"/>
     </row>
-    <row r="830" spans="1:1">
+    <row r="830">
       <c r="A830" s="4"/>
     </row>
-    <row r="831" spans="1:1">
+    <row r="831">
       <c r="A831" s="4"/>
     </row>
-    <row r="832" spans="1:1">
+    <row r="832">
       <c r="A832" s="4"/>
     </row>
-    <row r="833" spans="1:1">
+    <row r="833">
       <c r="A833" s="4"/>
     </row>
-    <row r="834" spans="1:1">
+    <row r="834">
       <c r="A834" s="4"/>
     </row>
-    <row r="835" spans="1:1">
+    <row r="835">
       <c r="A835" s="4"/>
     </row>
-    <row r="836" spans="1:1">
+    <row r="836">
       <c r="A836" s="4"/>
     </row>
-    <row r="837" spans="1:1">
+    <row r="837">
       <c r="A837" s="4"/>
     </row>
-    <row r="838" spans="1:1">
+    <row r="838">
       <c r="A838" s="4"/>
     </row>
-    <row r="839" spans="1:1">
+    <row r="839">
       <c r="A839" s="4"/>
     </row>
-    <row r="840" spans="1:1">
+    <row r="840">
       <c r="A840" s="4"/>
     </row>
-    <row r="841" spans="1:1">
+    <row r="841">
       <c r="A841" s="4"/>
     </row>
-    <row r="842" spans="1:1">
+    <row r="842">
       <c r="A842" s="4"/>
     </row>
-    <row r="843" spans="1:1">
+    <row r="843">
       <c r="A843" s="4"/>
     </row>
-    <row r="844" spans="1:1">
+    <row r="844">
       <c r="A844" s="4"/>
     </row>
-    <row r="845" spans="1:1">
+    <row r="845">
       <c r="A845" s="4"/>
     </row>
-    <row r="846" spans="1:1">
+    <row r="846">
       <c r="A846" s="4"/>
     </row>
-    <row r="847" spans="1:1">
+    <row r="847">
       <c r="A847" s="4"/>
     </row>
-    <row r="848" spans="1:1">
+    <row r="848">
       <c r="A848" s="4"/>
     </row>
-    <row r="849" spans="1:1">
+    <row r="849">
       <c r="A849" s="4"/>
     </row>
-    <row r="850" spans="1:1">
+    <row r="850">
       <c r="A850" s="4"/>
     </row>
-    <row r="851" spans="1:1">
+    <row r="851">
       <c r="A851" s="4"/>
     </row>
-    <row r="852" spans="1:1">
+    <row r="852">
       <c r="A852" s="4"/>
     </row>
-    <row r="853" spans="1:1">
+    <row r="853">
       <c r="A853" s="4"/>
     </row>
-    <row r="854" spans="1:1">
+    <row r="854">
       <c r="A854" s="4"/>
     </row>
-    <row r="855" spans="1:1">
+    <row r="855">
       <c r="A855" s="4"/>
     </row>
-    <row r="856" spans="1:1">
+    <row r="856">
       <c r="A856" s="4"/>
     </row>
-    <row r="857" spans="1:1">
+    <row r="857">
       <c r="A857" s="4"/>
     </row>
-    <row r="858" spans="1:1">
+    <row r="858">
       <c r="A858" s="4"/>
     </row>
-    <row r="859" spans="1:1">
+    <row r="859">
       <c r="A859" s="4"/>
     </row>
-    <row r="860" spans="1:1">
+    <row r="860">
       <c r="A860" s="4"/>
     </row>
-    <row r="861" spans="1:1">
+    <row r="861">
       <c r="A861" s="4"/>
     </row>
-    <row r="862" spans="1:1">
+    <row r="862">
       <c r="A862" s="4"/>
     </row>
-    <row r="863" spans="1:1">
+    <row r="863">
       <c r="A863" s="4"/>
     </row>
-    <row r="864" spans="1:1">
+    <row r="864">
       <c r="A864" s="4"/>
     </row>
-    <row r="865" spans="1:1">
+    <row r="865">
       <c r="A865" s="4"/>
     </row>
-    <row r="866" spans="1:1">
+    <row r="866">
       <c r="A866" s="4"/>
     </row>
-    <row r="867" spans="1:1">
+    <row r="867">
       <c r="A867" s="4"/>
     </row>
-    <row r="868" spans="1:1">
+    <row r="868">
       <c r="A868" s="4"/>
     </row>
-    <row r="869" spans="1:1">
+    <row r="869">
       <c r="A869" s="4"/>
     </row>
-    <row r="870" spans="1:1">
+    <row r="870">
       <c r="A870" s="4"/>
     </row>
-    <row r="871" spans="1:1">
+    <row r="871">
       <c r="A871" s="4"/>
     </row>
-    <row r="872" spans="1:1">
+    <row r="872">
       <c r="A872" s="4"/>
     </row>
-    <row r="873" spans="1:1">
+    <row r="873">
       <c r="A873" s="4"/>
     </row>
-    <row r="874" spans="1:1">
+    <row r="874">
       <c r="A874" s="4"/>
     </row>
-    <row r="875" spans="1:1">
+    <row r="875">
       <c r="A875" s="4"/>
     </row>
-    <row r="876" spans="1:1">
+    <row r="876">
       <c r="A876" s="4"/>
     </row>
-    <row r="877" spans="1:1">
+    <row r="877">
       <c r="A877" s="4"/>
     </row>
-    <row r="878" spans="1:1">
+    <row r="878">
       <c r="A878" s="4"/>
     </row>
-    <row r="879" spans="1:1">
+    <row r="879">
       <c r="A879" s="4"/>
     </row>
-    <row r="880" spans="1:1">
+    <row r="880">
       <c r="A880" s="4"/>
     </row>
-    <row r="881" spans="1:1">
+    <row r="881">
       <c r="A881" s="4"/>
     </row>
-    <row r="882" spans="1:1">
+    <row r="882">
       <c r="A882" s="4"/>
     </row>
-    <row r="883" spans="1:1">
+    <row r="883">
       <c r="A883" s="4"/>
     </row>
-    <row r="884" spans="1:1">
+    <row r="884">
       <c r="A884" s="4"/>
     </row>
-    <row r="885" spans="1:1">
+    <row r="885">
       <c r="A885" s="4"/>
     </row>
-    <row r="886" spans="1:1">
+    <row r="886">
       <c r="A886" s="4"/>
     </row>
-    <row r="887" spans="1:1">
+    <row r="887">
       <c r="A887" s="4"/>
     </row>
-    <row r="888" spans="1:1">
+    <row r="888">
       <c r="A888" s="4"/>
     </row>
-    <row r="889" spans="1:1">
+    <row r="889">
       <c r="A889" s="4"/>
     </row>
-    <row r="890" spans="1:1">
+    <row r="890">
       <c r="A890" s="4"/>
     </row>
-    <row r="891" spans="1:1">
+    <row r="891">
       <c r="A891" s="4"/>
     </row>
-    <row r="892" spans="1:1">
+    <row r="892">
       <c r="A892" s="4"/>
     </row>
-    <row r="893" spans="1:1">
+    <row r="893">
       <c r="A893" s="4"/>
     </row>
-    <row r="894" spans="1:1">
+    <row r="894">
       <c r="A894" s="4"/>
     </row>
-    <row r="895" spans="1:1">
+    <row r="895">
       <c r="A895" s="4"/>
     </row>
-    <row r="896" spans="1:1">
+    <row r="896">
       <c r="A896" s="4"/>
     </row>
-    <row r="897" spans="1:1">
+    <row r="897">
       <c r="A897" s="4"/>
     </row>
-    <row r="898" spans="1:1">
+    <row r="898">
       <c r="A898" s="4"/>
     </row>
-    <row r="899" spans="1:1">
+    <row r="899">
       <c r="A899" s="4"/>
     </row>
-    <row r="900" spans="1:1">
+    <row r="900">
       <c r="A900" s="4"/>
     </row>
-    <row r="901" spans="1:1">
+    <row r="901">
       <c r="A901" s="4"/>
     </row>
-    <row r="902" spans="1:1">
+    <row r="902">
       <c r="A902" s="4"/>
     </row>
-    <row r="903" spans="1:1">
+    <row r="903">
       <c r="A903" s="4"/>
     </row>
-    <row r="904" spans="1:1">
+    <row r="904">
       <c r="A904" s="4"/>
     </row>
-    <row r="905" spans="1:1">
+    <row r="905">
       <c r="A905" s="4"/>
     </row>
-    <row r="906" spans="1:1">
+    <row r="906">
       <c r="A906" s="4"/>
     </row>
-    <row r="907" spans="1:1">
+    <row r="907">
       <c r="A907" s="4"/>
     </row>
-    <row r="908" spans="1:1">
+    <row r="908">
       <c r="A908" s="4"/>
     </row>
-    <row r="909" spans="1:1">
+    <row r="909">
       <c r="A909" s="4"/>
     </row>
-    <row r="910" spans="1:1">
+    <row r="910">
       <c r="A910" s="4"/>
     </row>
-    <row r="911" spans="1:1">
+    <row r="911">
       <c r="A911" s="4"/>
     </row>
-    <row r="912" spans="1:1">
+    <row r="912">
       <c r="A912" s="4"/>
     </row>
-    <row r="913" spans="1:1">
+    <row r="913">
       <c r="A913" s="4"/>
     </row>
-    <row r="914" spans="1:1">
+    <row r="914">
       <c r="A914" s="4"/>
     </row>
-    <row r="915" spans="1:1">
+    <row r="915">
       <c r="A915" s="4"/>
     </row>
-    <row r="916" spans="1:1">
+    <row r="916">
       <c r="A916" s="4"/>
     </row>
-    <row r="917" spans="1:1">
+    <row r="917">
       <c r="A917" s="4"/>
     </row>
-    <row r="918" spans="1:1">
+    <row r="918">
       <c r="A918" s="4"/>
     </row>
-    <row r="919" spans="1:1">
+    <row r="919">
       <c r="A919" s="4"/>
     </row>
-    <row r="920" spans="1:1">
+    <row r="920">
       <c r="A920" s="4"/>
     </row>
-    <row r="921" spans="1:1">
+    <row r="921">
       <c r="A921" s="4"/>
     </row>
-    <row r="922" spans="1:1">
+    <row r="922">
       <c r="A922" s="4"/>
     </row>
-    <row r="923" spans="1:1">
+    <row r="923">
       <c r="A923" s="4"/>
     </row>
-    <row r="924" spans="1:1">
+    <row r="924">
       <c r="A924" s="4"/>
     </row>
-    <row r="925" spans="1:1">
+    <row r="925">
       <c r="A925" s="4"/>
     </row>
-    <row r="926" spans="1:1">
+    <row r="926">
       <c r="A926" s="4"/>
     </row>
-    <row r="927" spans="1:1">
+    <row r="927">
       <c r="A927" s="4"/>
     </row>
-    <row r="928" spans="1:1">
+    <row r="928">
       <c r="A928" s="4"/>
     </row>
-    <row r="929" spans="1:1">
+    <row r="929">
       <c r="A929" s="4"/>
     </row>
-    <row r="930" spans="1:1">
+    <row r="930">
       <c r="A930" s="4"/>
     </row>
-    <row r="931" spans="1:1">
+    <row r="931">
       <c r="A931" s="4"/>
     </row>
-    <row r="932" spans="1:1">
+    <row r="932">
       <c r="A932" s="4"/>
     </row>
-    <row r="933" spans="1:1">
+    <row r="933">
       <c r="A933" s="4"/>
     </row>
-    <row r="934" spans="1:1">
+    <row r="934">
       <c r="A934" s="4"/>
     </row>
-    <row r="935" spans="1:1">
+    <row r="935">
       <c r="A935" s="4"/>
     </row>
-    <row r="936" spans="1:1">
+    <row r="936">
       <c r="A936" s="4"/>
     </row>
-    <row r="937" spans="1:1">
+    <row r="937">
       <c r="A937" s="4"/>
     </row>
-    <row r="938" spans="1:1">
+    <row r="938">
       <c r="A938" s="4"/>
     </row>
-    <row r="939" spans="1:1">
+    <row r="939">
       <c r="A939" s="4"/>
     </row>
-    <row r="940" spans="1:1">
+    <row r="940">
       <c r="A940" s="4"/>
     </row>
-    <row r="941" spans="1:1">
+    <row r="941">
       <c r="A941" s="4"/>
     </row>
-    <row r="942" spans="1:1">
+    <row r="942">
       <c r="A942" s="4"/>
     </row>
-    <row r="943" spans="1:1">
+    <row r="943">
       <c r="A943" s="4"/>
     </row>
-    <row r="944" spans="1:1">
+    <row r="944">
       <c r="A944" s="4"/>
     </row>
-    <row r="945" spans="1:1">
+    <row r="945">
       <c r="A945" s="4"/>
     </row>
-    <row r="946" spans="1:1">
+    <row r="946">
       <c r="A946" s="4"/>
     </row>
-    <row r="947" spans="1:1">
+    <row r="947">
       <c r="A947" s="4"/>
     </row>
-    <row r="948" spans="1:1">
+    <row r="948">
       <c r="A948" s="4"/>
     </row>
-    <row r="949" spans="1:1">
+    <row r="949">
       <c r="A949" s="4"/>
     </row>
-    <row r="950" spans="1:1">
+    <row r="950">
       <c r="A950" s="4"/>
     </row>
-    <row r="951" spans="1:1">
+    <row r="951">
       <c r="A951" s="4"/>
     </row>
-    <row r="952" spans="1:1">
+    <row r="952">
       <c r="A952" s="4"/>
     </row>
-    <row r="953" spans="1:1">
+    <row r="953">
       <c r="A953" s="4"/>
     </row>
-    <row r="954" spans="1:1">
+    <row r="954">
       <c r="A954" s="4"/>
     </row>
-    <row r="955" spans="1:1">
+    <row r="955">
       <c r="A955" s="4"/>
     </row>
-    <row r="956" spans="1:1">
+    <row r="956">
       <c r="A956" s="4"/>
     </row>
-    <row r="957" spans="1:1">
+    <row r="957">
       <c r="A957" s="4"/>
     </row>
-    <row r="958" spans="1:1">
+    <row r="958">
       <c r="A958" s="4"/>
     </row>
-    <row r="959" spans="1:1">
+    <row r="959">
       <c r="A959" s="4"/>
     </row>
-    <row r="960" spans="1:1">
+    <row r="960">
       <c r="A960" s="4"/>
     </row>
-    <row r="961" spans="1:1">
+    <row r="961">
       <c r="A961" s="4"/>
     </row>
-    <row r="962" spans="1:1">
+    <row r="962">
       <c r="A962" s="4"/>
     </row>
-    <row r="963" spans="1:1">
+    <row r="963">
       <c r="A963" s="4"/>
     </row>
-    <row r="964" spans="1:1">
+    <row r="964">
       <c r="A964" s="4"/>
     </row>
-    <row r="965" spans="1:1">
+    <row r="965">
       <c r="A965" s="4"/>
     </row>
-    <row r="966" spans="1:1">
+    <row r="966">
       <c r="A966" s="4"/>
     </row>
-    <row r="967" spans="1:1">
+    <row r="967">
       <c r="A967" s="4"/>
     </row>
-    <row r="968" spans="1:1">
+    <row r="968">
       <c r="A968" s="4"/>
     </row>
-    <row r="969" spans="1:1">
+    <row r="969">
       <c r="A969" s="4"/>
     </row>
-    <row r="970" spans="1:1">
+    <row r="970">
       <c r="A970" s="4"/>
     </row>
-    <row r="971" spans="1:1">
+    <row r="971">
       <c r="A971" s="4"/>
     </row>
-    <row r="972" spans="1:1">
+    <row r="972">
       <c r="A972" s="4"/>
     </row>
-    <row r="973" spans="1:1">
+    <row r="973">
       <c r="A973" s="4"/>
     </row>
-    <row r="974" spans="1:1">
+    <row r="974">
       <c r="A974" s="4"/>
     </row>
-    <row r="975" spans="1:1">
+    <row r="975">
       <c r="A975" s="4"/>
     </row>
-    <row r="976" spans="1:1">
+    <row r="976">
       <c r="A976" s="4"/>
     </row>
-    <row r="977" spans="1:1">
+    <row r="977">
       <c r="A977" s="4"/>
     </row>
-    <row r="978" spans="1:1">
+    <row r="978">
       <c r="A978" s="4"/>
     </row>
-    <row r="979" spans="1:1">
+    <row r="979">
       <c r="A979" s="4"/>
     </row>
-    <row r="980" spans="1:1">
+    <row r="980">
       <c r="A980" s="4"/>
     </row>
-    <row r="981" spans="1:1">
+    <row r="981">
       <c r="A981" s="4"/>
     </row>
-    <row r="982" spans="1:1">
+    <row r="982">
       <c r="A982" s="4"/>
     </row>
-    <row r="983" spans="1:1">
+    <row r="983">
       <c r="A983" s="4"/>
     </row>
-    <row r="984" spans="1:1">
+    <row r="984">
       <c r="A984" s="4"/>
     </row>
-    <row r="985" spans="1:1">
+    <row r="985">
       <c r="A985" s="4"/>
     </row>
-    <row r="986" spans="1:1">
+    <row r="986">
       <c r="A986" s="4"/>
     </row>
-    <row r="987" spans="1:1">
+    <row r="987">
       <c r="A987" s="4"/>
     </row>
-    <row r="988" spans="1:1">
+    <row r="988">
       <c r="A988" s="4"/>
     </row>
-    <row r="989" spans="1:1">
+    <row r="989">
       <c r="A989" s="4"/>
     </row>
-    <row r="990" spans="1:1">
+    <row r="990">
       <c r="A990" s="4"/>
     </row>
-    <row r="991" spans="1:1">
+    <row r="991">
       <c r="A991" s="4"/>
     </row>
-    <row r="992" spans="1:1">
+    <row r="992">
       <c r="A992" s="4"/>
     </row>
-    <row r="993" spans="1:1">
+    <row r="993">
       <c r="A993" s="4"/>
     </row>
-    <row r="994" spans="1:1">
+    <row r="994">
       <c r="A994" s="4"/>
     </row>
-    <row r="995" spans="1:1">
+    <row r="995">
       <c r="A995" s="4"/>
     </row>
-    <row r="996" spans="1:1">
+    <row r="996">
       <c r="A996" s="4"/>
     </row>
-    <row r="997" spans="1:1">
+    <row r="997">
       <c r="A997" s="4"/>
     </row>
-    <row r="998" spans="1:1">
+    <row r="998">
       <c r="A998" s="4"/>
     </row>
-    <row r="999" spans="1:1">
+    <row r="999">
       <c r="A999" s="4"/>
     </row>
-    <row r="1000" spans="1:1">
+    <row r="1000">
       <c r="A1000" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="A2:A1000" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="A2:A1000">
       <formula1>"Sang,Shoutout"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>